--- a/2.Test/Template_TestDesign.xlsx
+++ b/2.Test/Template_TestDesign.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="335">
   <si>
     <t>Requirement Level 1
 Yêu cầu cấp 1</t>
@@ -917,6 +917,126 @@
   </si>
   <si>
     <t>Check Function  thêm mới tài khoản quản lý</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện Phiếu Thanh Toán</t>
+  </si>
+  <si>
+    <t>Check Gui -Giao diện phiếu thanh toán</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Label tiêu đề (lbl_title): "Phiếu Thanh Toán" - fontsize: 24px - color: black (#000000) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>C12.1</t>
+  </si>
+  <si>
+    <t>C12.2</t>
+  </si>
+  <si>
+    <t>C12.3</t>
+  </si>
+  <si>
+    <t>C12.4</t>
+  </si>
+  <si>
+    <t>C12.5</t>
+  </si>
+  <si>
+    <t>C12.6</t>
+  </si>
+  <si>
+    <t>C12.7</t>
+  </si>
+  <si>
+    <t>C12.8</t>
+  </si>
+  <si>
+    <t>C12.9</t>
+  </si>
+  <si>
+    <t>C12.10</t>
+  </si>
+  <si>
+    <t>C12.11</t>
+  </si>
+  <si>
+    <t>Label Tên khách hàng (lbl_title): "Tên khách hàng" - fontsize: 14px - color: black (#000000) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>Label Số TK (lbl_sotk): "Số TK" - fontsize: 14px - color: black (#000000) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>Label Ngày giao dịch (lbl_ngaygiaodich): "Ngày giao dịch" - fontsize: 14px - color: black (#000000) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>TextField Tên khách hàng (txt_tenkhachhang): fontsize: 14px - color: white (#FFFFFF) -  font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>TextField SốTK (txt_soTK): fontsize: 14px - color: white (#FFFFFF) -  font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>TextField Ngày giao dịch  (txt_ngaygiaodich): fontsize: 14px - color: white (#FFFFFF) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>Table phải đầy đủ các cột : STT,Món ăn ,Số lượng,Đơn giá,Thành tiền-Font size:14px</t>
+  </si>
+  <si>
+    <t>Label Số thứ tự (lbl_stt): "Số thứ tự" - fontsize: 14px - color: black (#000000) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>Label Món ăn (lbl_monan): "Món ăn" - fontsize: 14px - color: black (#000000) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>Label Số lượng (lbl_soluong): "Ngày giao dịch" - fontsize: 14px - color: black (#000000) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>Label Đơn giá (lbl_dongia): "Đơn giá" - fontsize: 14px - color: black (#000000) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>C12.12</t>
+  </si>
+  <si>
+    <t>C12.14</t>
+  </si>
+  <si>
+    <t>C12.13</t>
+  </si>
+  <si>
+    <t>C12.15</t>
+  </si>
+  <si>
+    <t>C12.16</t>
+  </si>
+  <si>
+    <t>C12.17</t>
+  </si>
+  <si>
+    <t>C12.18</t>
+  </si>
+  <si>
+    <t>Label Thành tiền (lbl_thanhtien): "Thành tiền" - fontsize: 14px - color: black (#000000) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>Label Số tiền bằng chữ (lbl_sotienbangchu): "Số tiền bằng chữ" - fontsize: 14px - color: black (#000000) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>Label Chữ ký của khách (lbl_chukycuakhach): "Chữ ký của khách" - fontsize: 14px - color: black (#000000) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>Label Chữ ký của nhân viên (lbl_nhanvien): "Chữ ký của nhân viên" - fontsize: 14px - color: black (#000000) - font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>TextField Tổng số (txt_tongso): fontsize: 14px - color: white (#FFFFFF) -  font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>TextField Phí vẫn chuyển  (txt_phivanchuyen): fontsize: 14px - color: white (#FFFFFF) -  font style: Time New Roman</t>
+  </si>
+  <si>
+    <t>TextField Số tiền phải trả (txt_sotienphaitra): fontsize: 14px - color: white (#FFFFFF) -  font style: Time New Roman</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1408,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3095,7 +3215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="4:6">
+    <row r="129" spans="1:6">
       <c r="D129" s="2" t="s">
         <v>262</v>
       </c>
@@ -3106,7 +3226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="4:6" ht="29">
+    <row r="130" spans="1:6" ht="29">
       <c r="D130" s="2" t="s">
         <v>264</v>
       </c>
@@ -3117,7 +3237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="4:6">
+    <row r="131" spans="1:6">
       <c r="D131" s="2" t="s">
         <v>266</v>
       </c>
@@ -3128,7 +3248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="4:6">
+    <row r="132" spans="1:6">
       <c r="D132" s="2" t="s">
         <v>268</v>
       </c>
@@ -3139,7 +3259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="4:6">
+    <row r="133" spans="1:6">
       <c r="D133" s="2" t="s">
         <v>270</v>
       </c>
@@ -3150,7 +3270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="4:6">
+    <row r="134" spans="1:6">
       <c r="D134" s="2" t="s">
         <v>272</v>
       </c>
@@ -3161,7 +3281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="4:6" ht="29">
+    <row r="135" spans="1:6" ht="29">
       <c r="D135" s="2" t="s">
         <v>274</v>
       </c>
@@ -3172,7 +3292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="4:6" ht="29">
+    <row r="136" spans="1:6" ht="29">
       <c r="D136" s="2" t="s">
         <v>276</v>
       </c>
@@ -3183,7 +3303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="4:6" ht="29">
+    <row r="137" spans="1:6" ht="29">
       <c r="D137" s="2" t="s">
         <v>278</v>
       </c>
@@ -3194,7 +3314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="4:6" ht="29">
+    <row r="138" spans="1:6" ht="29">
       <c r="D138" s="2" t="s">
         <v>280</v>
       </c>
@@ -3205,7 +3325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="4:6" ht="29">
+    <row r="139" spans="1:6" ht="29">
       <c r="D139" s="2" t="s">
         <v>282</v>
       </c>
@@ -3216,7 +3336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="4:6">
+    <row r="140" spans="1:6">
       <c r="D140" s="2" t="s">
         <v>284</v>
       </c>
@@ -3224,6 +3344,221 @@
         <v>186</v>
       </c>
       <c r="F140" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="29">
+      <c r="A142" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="29">
+      <c r="D143" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="29">
+      <c r="D144" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6" ht="29">
+      <c r="D145" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" ht="29">
+      <c r="D146" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6" ht="29">
+      <c r="D147" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" ht="29">
+      <c r="D148" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="4:6">
+      <c r="D149" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6" ht="29">
+      <c r="D150" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6" ht="29">
+      <c r="D151" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6" ht="29">
+      <c r="D152" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="4:6" ht="29">
+      <c r="D153" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6" ht="29">
+      <c r="D154" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6" ht="29">
+      <c r="D155" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="4:6" ht="29">
+      <c r="D156" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6" ht="29">
+      <c r="D157" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6" ht="29">
+      <c r="D158" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="4:6" ht="29">
+      <c r="D159" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6" ht="29">
+      <c r="D160" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>11</v>
       </c>
     </row>
